--- a/icmecat/HELIO4CAST_ICMECAT_v23_master.xlsx
+++ b/icmecat/HELIO4CAST_ICMECAT_v23_master.xlsx
@@ -1137,7 +1137,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">2023-10-28T18:42Z
+    <t xml:space="preserve">2023-10-29T18:42Z
 </t>
   </si>
   <si>
@@ -1159,7 +1159,7 @@
     <t>2023-11-04T09:30Z</t>
   </si>
   <si>
-    <t>2023-11-04T15:45Z</t>
+    <t>2023-11-04T16:40Z</t>
   </si>
   <si>
     <t>2023-11-05T02:46Z</t>
@@ -1186,7 +1186,7 @@
     <t>2023-11-23T09:55Z</t>
   </si>
   <si>
-    <t>2023-11-23T23:54Z</t>
+    <t>2023-11-23T22:47Z</t>
   </si>
   <si>
     <t>ICME_PSP_MOESTL_20231219_01</t>
@@ -1234,10 +1234,7 @@
     <t>2024-01-10T21:39Z</t>
   </si>
   <si>
-    <t>2024-01-11T10:22Z</t>
-  </si>
-  <si>
-    <t>2024-01-12T02:37Z</t>
+    <t>2024-01-11T06:08Z</t>
   </si>
   <si>
     <t>ICME_PSP_MOESTL_20240123_01</t>
@@ -1318,7 +1315,7 @@
     <t>2024-03-12T15:18Z</t>
   </si>
   <si>
-    <t>2024-03-12T18:55Z</t>
+    <t>2024-03-13T01:59Z</t>
   </si>
   <si>
     <t>ICME_PSP_MOESTL_20240314_01</t>
@@ -1361,6 +1358,9 @@
   </si>
   <si>
     <t>ICME_PSP_MOESTL_20240324_01</t>
+  </si>
+  <si>
+    <t>2024-03-24T13:28Z</t>
   </si>
   <si>
     <t>2024-03-24T15:40Z</t>
@@ -3039,7 +3039,7 @@
     <t>2024-08-11T12:03Z</t>
   </si>
   <si>
-    <t>2024-08-11T17:11Z</t>
+    <t>2024-08-11T15:29Z</t>
   </si>
   <si>
     <t>ICME_SOLO_MOESTL_20240826_01</t>
@@ -9782,7 +9782,7 @@
     <t>2024-03-21T02:02Z</t>
   </si>
   <si>
-    <t>2024-03-21T11:28Z</t>
+    <t>2024-03-21T15:34Z</t>
   </si>
   <si>
     <t>2024-03-22T05:04Z</t>
@@ -9827,10 +9827,10 @@
     <t>2024-04-08T01:48Z</t>
   </si>
   <si>
-    <t>2024-04-09T09:23Z</t>
-  </si>
-  <si>
-    <t>2024-04-10T13:54Z</t>
+    <t>2024-04-08T09:23Z</t>
+  </si>
+  <si>
+    <t>2024-04-09T13:54Z</t>
   </si>
   <si>
     <t>ICME_Wind_MOESTL_20240415_01</t>
@@ -13881,7 +13881,7 @@
     <t>ICME_STEREO_A_MOESTL_20241218_01</t>
   </si>
   <si>
-    <t>2024-12-18T21:13Z</t>
+    <t>2024-12-18T06:17Z</t>
   </si>
   <si>
     <t>2024-12-18T22:32Z</t>
@@ -24441,226 +24441,226 @@
         <v>380</v>
       </c>
       <c r="D96" t="s" s="9">
+        <v>380</v>
+      </c>
+      <c r="E96" t="s" s="9">
         <v>381</v>
-      </c>
-      <c r="E96" t="s" s="9">
-        <v>382</v>
       </c>
       <c r="F96" s="10"/>
       <c r="AQ96" s="9"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A97" t="s" s="8">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B97" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C97" t="s" s="9">
+        <v>383</v>
+      </c>
+      <c r="D97" t="s" s="9">
         <v>384</v>
       </c>
-      <c r="D97" t="s" s="9">
+      <c r="E97" t="s" s="9">
         <v>385</v>
-      </c>
-      <c r="E97" t="s" s="9">
-        <v>386</v>
       </c>
       <c r="F97" s="10"/>
       <c r="AQ97" s="9"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A98" t="s" s="8">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B98" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C98" t="s" s="9">
+        <v>387</v>
+      </c>
+      <c r="D98" t="s" s="9">
         <v>388</v>
       </c>
-      <c r="D98" t="s" s="9">
+      <c r="E98" t="s" s="9">
         <v>389</v>
-      </c>
-      <c r="E98" t="s" s="9">
-        <v>390</v>
       </c>
       <c r="F98" s="10"/>
       <c r="AQ98" s="9"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A99" t="s" s="8">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B99" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C99" t="s" s="9">
+        <v>391</v>
+      </c>
+      <c r="D99" t="s" s="9">
         <v>392</v>
       </c>
-      <c r="D99" t="s" s="9">
+      <c r="E99" t="s" s="9">
         <v>393</v>
-      </c>
-      <c r="E99" t="s" s="9">
-        <v>394</v>
       </c>
       <c r="F99" s="10"/>
       <c r="AQ99" s="9"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A100" t="s" s="8">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B100" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C100" t="s" s="9">
+        <v>395</v>
+      </c>
+      <c r="D100" t="s" s="9">
+        <v>395</v>
+      </c>
+      <c r="E100" t="s" s="9">
         <v>396</v>
-      </c>
-      <c r="D100" t="s" s="9">
-        <v>396</v>
-      </c>
-      <c r="E100" t="s" s="9">
-        <v>397</v>
       </c>
       <c r="F100" s="10"/>
       <c r="AQ100" s="9"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A101" t="s" s="8">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B101" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C101" t="s" s="9">
+        <v>398</v>
+      </c>
+      <c r="D101" t="s" s="9">
         <v>399</v>
       </c>
-      <c r="D101" t="s" s="9">
+      <c r="E101" t="s" s="9">
         <v>400</v>
-      </c>
-      <c r="E101" t="s" s="9">
-        <v>401</v>
       </c>
       <c r="F101" s="10"/>
       <c r="AQ101" s="9"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A102" t="s" s="8">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B102" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C102" t="s" s="9">
+        <v>402</v>
+      </c>
+      <c r="D102" t="s" s="9">
         <v>403</v>
       </c>
-      <c r="D102" t="s" s="9">
+      <c r="E102" t="s" s="9">
         <v>404</v>
-      </c>
-      <c r="E102" t="s" s="9">
-        <v>405</v>
       </c>
       <c r="F102" s="10"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A103" t="s" s="8">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B103" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C103" t="s" s="9">
+        <v>406</v>
+      </c>
+      <c r="D103" t="s" s="9">
         <v>407</v>
       </c>
-      <c r="D103" t="s" s="9">
+      <c r="E103" t="s" s="9">
         <v>408</v>
-      </c>
-      <c r="E103" t="s" s="9">
-        <v>409</v>
       </c>
       <c r="F103" s="10"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A104" t="s" s="8">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B104" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C104" t="s" s="9">
+        <v>410</v>
+      </c>
+      <c r="D104" t="s" s="9">
         <v>411</v>
       </c>
-      <c r="D104" t="s" s="9">
+      <c r="E104" t="s" s="9">
         <v>412</v>
-      </c>
-      <c r="E104" t="s" s="9">
-        <v>413</v>
       </c>
       <c r="F104" s="10"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A105" t="s" s="8">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B105" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C105" t="s" s="9">
+        <v>414</v>
+      </c>
+      <c r="D105" t="s" s="9">
+        <v>414</v>
+      </c>
+      <c r="E105" t="s" s="9">
         <v>415</v>
-      </c>
-      <c r="D105" t="s" s="9">
-        <v>415</v>
-      </c>
-      <c r="E105" t="s" s="9">
-        <v>416</v>
       </c>
       <c r="F105" s="10"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A106" t="s" s="8">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B106" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C106" t="s" s="9">
+        <v>417</v>
+      </c>
+      <c r="D106" t="s" s="9">
+        <v>417</v>
+      </c>
+      <c r="E106" t="s" s="9">
         <v>418</v>
-      </c>
-      <c r="D106" t="s" s="9">
-        <v>418</v>
-      </c>
-      <c r="E106" t="s" s="9">
-        <v>419</v>
       </c>
       <c r="F106" s="10"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A107" t="s" s="8">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B107" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C107" t="s" s="9">
+        <v>420</v>
+      </c>
+      <c r="D107" t="s" s="9">
+        <v>420</v>
+      </c>
+      <c r="E107" t="s" s="9">
         <v>421</v>
-      </c>
-      <c r="D107" t="s" s="9">
-        <v>421</v>
-      </c>
-      <c r="E107" t="s" s="9">
-        <v>422</v>
       </c>
       <c r="F107" s="10"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="23" customHeight="1">
       <c r="A108" t="s" s="8">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B108" t="s" s="9">
         <v>39</v>
       </c>
       <c r="C108" t="s" s="9">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D108" t="s" s="9">
         <v>424</v>
